--- a/IIR_Filter.xlsx
+++ b/IIR_Filter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work_ASUS\Projects\Cypress\Ser_120\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A782950A-1E25-4EBE-BF58-F350096E9B82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C4A90C-5C75-4332-BCE2-D5A808BE0024}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{BDC98FDC-FDD7-459C-8172-F3B3CC87EA20}"/>
   </bookViews>
@@ -60,7 +60,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,8 +83,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,6 +113,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -166,12 +190,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -188,9 +214,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -222,6 +252,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Temperature</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -286,69 +341,111 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$23</c:f>
+              <c:f>Sheet1!$B$4:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>100.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>100.098</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>100.143</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>100.18600000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>100.227</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>100.26600000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>100.303</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>100.33799999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>100.371</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100.402</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100.432</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>100.46</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>100.48699999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>100.51300000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>100.53700000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>100.56</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -356,7 +453,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1042-482F-95EB-A46EC590BAB9}"/>
+              <c16:uniqueId val="{00000000-2F35-45E0-8FB2-5F5F410030CB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -389,69 +486,111 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$23</c:f>
+              <c:f>Sheet1!$C$4:$C$37</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>110</c:v>
+                  <c:v>100.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>115</c:v>
+                  <c:v>100.9525</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>113</c:v>
+                  <c:v>100.0975</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>116</c:v>
+                  <c:v>100.95489999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>114</c:v>
+                  <c:v>100.1431</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>120</c:v>
+                  <c:v>100.95715</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>125</c:v>
+                  <c:v>100.18585</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>130</c:v>
+                  <c:v>100.9593</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>128</c:v>
+                  <c:v>100.22670000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>129</c:v>
+                  <c:v>100.96135</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>135</c:v>
+                  <c:v>100.26565000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>140</c:v>
+                  <c:v>100.9633</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>145</c:v>
+                  <c:v>100.3027</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>143</c:v>
+                  <c:v>100.96514999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>142</c:v>
+                  <c:v>100.33785</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>150</c:v>
+                  <c:v>100.9669</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>155</c:v>
+                  <c:v>100.3711</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>160</c:v>
+                  <c:v>100.96854999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>158</c:v>
+                  <c:v>100.40245</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100.9701</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100.4319</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100.9716</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>100.46040000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>100.973</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>100.48699999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>100.97435</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>100.51264999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>100.97565</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>100.53735</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>100.97685</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>100.56015000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>100.97799999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>100.58200000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -459,110 +598,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1042-482F-95EB-A46EC590BAB9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$4:$C$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>110.25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>114.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>113.15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>115.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>114.3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120.25</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>125.25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>129.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>128.05000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>129.30000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>135.25</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>140.25</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>144.9</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>142.94999999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>142.4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>150.25</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>155.25</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>159.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1042-482F-95EB-A46EC590BAB9}"/>
+              <c16:uniqueId val="{00000001-2F35-45E0-8FB2-5F5F410030CB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -576,11 +612,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="173641967"/>
-        <c:axId val="73684687"/>
+        <c:axId val="629413328"/>
+        <c:axId val="709652944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="173641967"/>
+        <c:axId val="629413328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -622,7 +658,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73684687"/>
+        <c:crossAx val="709652944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -630,7 +666,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73684687"/>
+        <c:axId val="709652944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -681,7 +717,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173641967"/>
+        <c:crossAx val="629413328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -768,7 +804,435 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Error</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$5:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.95000000000000284</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95000000000000284</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.90200000000000102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90200000000000102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.85699999999999932</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85699999999999932</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.81399999999999295</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.81399999999999295</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.77299999999999613</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.77299999999999613</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.73399999999999466</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.73399999999999466</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.69700000000000273</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.69700000000000273</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.66200000000000614</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.66200000000000614</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.62900000000000489</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.62900000000000489</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.59799999999999898</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.59799999999999898</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.56799999999999784</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.56799999999999784</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.54000000000000625</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.54000000000000625</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.51300000000000523</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.51300000000000523</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.48699999999999477</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.48699999999999477</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.46299999999999386</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.46299999999999386</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.43999999999999773</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.43999999999999773</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9158-4CD3-80EB-494EE53D7106}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="807984288"/>
+        <c:axId val="709644624"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="807984288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="709644624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="709644624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="807984288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1311,27 +1775,530 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A57D208-9708-41F4-8F7F-29FBF41226FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54EE9ABA-66CF-4279-99CB-2ECDC670A0E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1344,6 +2311,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3702A726-E4E5-4538-8EC6-7F218C682EDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1649,10 +2652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131FDB68-AF74-4FB1-9B25-BF64E5B99FCD}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1722,7 +2725,7 @@
         <v>100</v>
       </c>
       <c r="G4" s="8">
-        <f>(B4-B3)</f>
+        <f t="shared" ref="G4:G14" si="0">(B4-B3)</f>
         <v>100</v>
       </c>
       <c r="H4" s="8">
@@ -1743,19 +2746,22 @@
         <v>2</v>
       </c>
       <c r="B5" s="7">
-        <v>110</v>
-      </c>
-      <c r="C5" s="9">
+        <v>101</v>
+      </c>
+      <c r="C5" s="13">
         <f>IF((B4*M3)&lt;H5,B5,(G5*M4+B4))</f>
-        <v>100.5</v>
+        <v>100.05</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
       <c r="G5" s="8">
-        <f>(B5-B4)</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="H5" s="8">
-        <f t="shared" ref="H5:H23" si="0">IF(G5&lt;0,G5*(-1),G5)</f>
-        <v>10</v>
+        <f t="shared" ref="H5:H23" si="1">IF(G5&lt;0,G5*(-1),G5)</f>
+        <v>1</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -1765,19 +2771,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="7">
-        <v>115</v>
+        <v>100.05</v>
       </c>
       <c r="C6" s="9">
         <f>IF((B5*M3)&lt;H6,B6,(G6*M4+B5))</f>
-        <v>110.25</v>
+        <v>100.9525</v>
       </c>
       <c r="G6" s="8">
-        <f>(B6-B5)</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>-0.95000000000000284</v>
       </c>
       <c r="H6" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.95000000000000284</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -1787,19 +2793,22 @@
         <v>4</v>
       </c>
       <c r="B7" s="7">
-        <v>113</v>
-      </c>
-      <c r="C7" s="9">
+        <v>101</v>
+      </c>
+      <c r="C7" s="13">
         <f>IF((B6*M3)&lt;H7,B7,(G7*M4+B6))</f>
-        <v>114.9</v>
+        <v>100.0975</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
       </c>
       <c r="G7" s="8">
-        <f>(B7-B6)</f>
-        <v>-2</v>
+        <f t="shared" si="0"/>
+        <v>0.95000000000000284</v>
       </c>
       <c r="H7" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>0.95000000000000284</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -1809,19 +2818,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="7">
-        <v>116</v>
+        <v>100.098</v>
       </c>
       <c r="C8" s="9">
         <f>IF((B7*M3)&lt;H8,B8,(G8*M4+B7))</f>
-        <v>113.15</v>
+        <v>100.95489999999999</v>
       </c>
       <c r="G8" s="8">
-        <f>(B8-B7)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>-0.90200000000000102</v>
       </c>
       <c r="H8" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>0.90200000000000102</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -1831,19 +2840,22 @@
         <v>6</v>
       </c>
       <c r="B9" s="7">
-        <v>114</v>
-      </c>
-      <c r="C9" s="9">
+        <v>101</v>
+      </c>
+      <c r="C9" s="13">
         <f>IF((B8*M3)&lt;H9,B9,(G9*M4+B8))</f>
-        <v>115.9</v>
+        <v>100.1431</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
       </c>
       <c r="G9" s="8">
-        <f>(B9-B8)</f>
-        <v>-2</v>
+        <f t="shared" si="0"/>
+        <v>0.90200000000000102</v>
       </c>
       <c r="H9" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>0.90200000000000102</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -1853,19 +2865,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="7">
-        <v>120</v>
+        <v>100.143</v>
       </c>
       <c r="C10" s="9">
         <f>IF((B9*M3)&lt;H10,B10,(G10*M4+B9))</f>
-        <v>114.3</v>
+        <v>100.95715</v>
       </c>
       <c r="G10" s="8">
-        <f>(B10-B9)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>-0.85699999999999932</v>
       </c>
       <c r="H10" s="8">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>0.85699999999999932</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -1875,19 +2887,22 @@
         <v>8</v>
       </c>
       <c r="B11" s="7">
-        <v>125</v>
-      </c>
-      <c r="C11" s="9">
+        <v>101</v>
+      </c>
+      <c r="C11" s="13">
         <f>IF((B10*M3)&lt;H11,B11,(G11*M4+B10))</f>
-        <v>120.25</v>
+        <v>100.18585</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
       </c>
       <c r="G11" s="8">
-        <f>(B11-B10)</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0.85699999999999932</v>
       </c>
       <c r="H11" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.85699999999999932</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -1897,19 +2912,19 @@
         <v>9</v>
       </c>
       <c r="B12" s="7">
-        <v>130</v>
+        <v>100.18600000000001</v>
       </c>
       <c r="C12" s="9">
         <f>IF((B11*M3)&lt;H12,B12,(G12*M4+B11))</f>
-        <v>125.25</v>
+        <v>100.9593</v>
       </c>
       <c r="G12" s="8">
-        <f>(B12-B11)</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>-0.81399999999999295</v>
       </c>
       <c r="H12" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.81399999999999295</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -1919,19 +2934,22 @@
         <v>10</v>
       </c>
       <c r="B13" s="7">
-        <v>128</v>
-      </c>
-      <c r="C13" s="9">
+        <v>101</v>
+      </c>
+      <c r="C13" s="13">
         <f>IF((B12*M3)&lt;H13,B13,(G13*M4+B12))</f>
-        <v>129.9</v>
+        <v>100.22670000000001</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
       </c>
       <c r="G13" s="8">
-        <f>(B13-B12)</f>
-        <v>-2</v>
+        <f t="shared" si="0"/>
+        <v>0.81399999999999295</v>
       </c>
       <c r="H13" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>0.81399999999999295</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -1941,19 +2959,19 @@
         <v>11</v>
       </c>
       <c r="B14" s="7">
-        <v>129</v>
+        <v>100.227</v>
       </c>
       <c r="C14" s="9">
         <f>IF((B13*M3)&lt;H14,B14,(G14*M4+B13))</f>
-        <v>128.05000000000001</v>
+        <v>100.96135</v>
       </c>
       <c r="G14" s="8">
-        <f>(B14-B13)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>-0.77299999999999613</v>
       </c>
       <c r="H14" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.77299999999999613</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -1963,19 +2981,22 @@
         <v>12</v>
       </c>
       <c r="B15" s="7">
-        <v>135</v>
-      </c>
-      <c r="C15" s="9">
+        <v>101</v>
+      </c>
+      <c r="C15" s="13">
         <f>IF((B14*M3)&lt;H15,B15,(G15*M4+B14))</f>
-        <v>129.30000000000001</v>
+        <v>100.26565000000001</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
       </c>
       <c r="G15" s="8">
-        <f t="shared" ref="G15:G23" si="1">(B15-B14)</f>
-        <v>6</v>
+        <f t="shared" ref="G15:G23" si="2">(B15-B14)</f>
+        <v>0.77299999999999613</v>
       </c>
       <c r="H15" s="8">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>0.77299999999999613</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1983,19 +3004,19 @@
         <v>13</v>
       </c>
       <c r="B16" s="7">
-        <v>140</v>
+        <v>100.26600000000001</v>
       </c>
       <c r="C16" s="9">
         <f>IF((B15*M3)&lt;H16,B16,(G16*M4+B15))</f>
-        <v>135.25</v>
+        <v>100.9633</v>
       </c>
       <c r="G16" s="8">
+        <f t="shared" si="2"/>
+        <v>-0.73399999999999466</v>
+      </c>
+      <c r="H16" s="8">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="H16" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0.73399999999999466</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2003,19 +3024,22 @@
         <v>14</v>
       </c>
       <c r="B17" s="7">
-        <v>145</v>
-      </c>
-      <c r="C17" s="9">
+        <v>101</v>
+      </c>
+      <c r="C17" s="13">
         <f>IF((B16*M3)&lt;H17,B17,(G17*M4+B16))</f>
-        <v>140.25</v>
+        <v>100.3027</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
       </c>
       <c r="G17" s="8">
+        <f t="shared" si="2"/>
+        <v>0.73399999999999466</v>
+      </c>
+      <c r="H17" s="8">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="H17" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0.73399999999999466</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2023,19 +3047,19 @@
         <v>15</v>
       </c>
       <c r="B18" s="7">
-        <v>143</v>
+        <v>100.303</v>
       </c>
       <c r="C18" s="9">
         <f>IF((B17*M3)&lt;H18,B18,(G18*M4+B17))</f>
-        <v>144.9</v>
+        <v>100.96514999999999</v>
       </c>
       <c r="G18" s="8">
+        <f t="shared" si="2"/>
+        <v>-0.69700000000000273</v>
+      </c>
+      <c r="H18" s="8">
         <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="H18" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0.69700000000000273</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2043,19 +3067,22 @@
         <v>16</v>
       </c>
       <c r="B19" s="7">
-        <v>142</v>
-      </c>
-      <c r="C19" s="9">
+        <v>101</v>
+      </c>
+      <c r="C19" s="13">
         <f>IF((B18*M3)&lt;H19,B19,(G19*M4+B18))</f>
-        <v>142.94999999999999</v>
+        <v>100.33785</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
       </c>
       <c r="G19" s="8">
+        <f t="shared" si="2"/>
+        <v>0.69700000000000273</v>
+      </c>
+      <c r="H19" s="8">
         <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="H19" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.69700000000000273</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2063,19 +3090,19 @@
         <v>17</v>
       </c>
       <c r="B20" s="7">
-        <v>150</v>
+        <v>100.33799999999999</v>
       </c>
       <c r="C20" s="9">
         <f>IF((B19*M3)&lt;H20,B20,(G20*M4+B19))</f>
-        <v>142.4</v>
+        <v>100.9669</v>
       </c>
       <c r="G20" s="8">
+        <f t="shared" si="2"/>
+        <v>-0.66200000000000614</v>
+      </c>
+      <c r="H20" s="8">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="H20" s="8">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0.66200000000000614</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2083,19 +3110,22 @@
         <v>18</v>
       </c>
       <c r="B21" s="7">
-        <v>155</v>
-      </c>
-      <c r="C21" s="9">
+        <v>101</v>
+      </c>
+      <c r="C21" s="13">
         <f>IF((B20*M3)&lt;H21,B21,(G21*M4+B20))</f>
-        <v>150.25</v>
+        <v>100.3711</v>
+      </c>
+      <c r="D21">
+        <v>9</v>
       </c>
       <c r="G21" s="8">
+        <f t="shared" si="2"/>
+        <v>0.66200000000000614</v>
+      </c>
+      <c r="H21" s="8">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="H21" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0.66200000000000614</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2103,19 +3133,19 @@
         <v>18</v>
       </c>
       <c r="B22" s="7">
-        <v>160</v>
+        <v>100.371</v>
       </c>
       <c r="C22" s="9">
         <f>IF((B21*M3)&lt;H22,B22,(G22*M4+B21))</f>
-        <v>155.25</v>
+        <v>100.96854999999999</v>
       </c>
       <c r="G22" s="8">
+        <f t="shared" si="2"/>
+        <v>-0.62900000000000489</v>
+      </c>
+      <c r="H22" s="8">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="H22" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0.62900000000000489</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2123,19 +3153,323 @@
         <v>20</v>
       </c>
       <c r="B23" s="7">
-        <v>158</v>
-      </c>
-      <c r="C23" s="9">
+        <v>101</v>
+      </c>
+      <c r="C23" s="13">
         <f>IF((B22*M3)&lt;H23,B23,(G23*M4+B22))</f>
-        <v>159.9</v>
+        <v>100.40245</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
       </c>
       <c r="G23" s="8">
+        <f t="shared" si="2"/>
+        <v>0.62900000000000489</v>
+      </c>
+      <c r="H23" s="8">
         <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="H23" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0.62900000000000489</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>21</v>
+      </c>
+      <c r="B24" s="7">
+        <v>100.402</v>
+      </c>
+      <c r="C24" s="9">
+        <f>IF((B23*M3)&lt;H24,B24,(G24*M4+B23))</f>
+        <v>100.9701</v>
+      </c>
+      <c r="G24" s="8">
+        <f t="shared" ref="G24:G30" si="3">(B24-B23)</f>
+        <v>-0.59799999999999898</v>
+      </c>
+      <c r="H24" s="8">
+        <f t="shared" ref="H24:H30" si="4">IF(G24&lt;0,G24*(-1),G24)</f>
+        <v>0.59799999999999898</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>22</v>
+      </c>
+      <c r="B25" s="7">
+        <v>101</v>
+      </c>
+      <c r="C25" s="13">
+        <f>IF((B24*M3)&lt;H25,B25,(G25*M4+B24))</f>
+        <v>100.4319</v>
+      </c>
+      <c r="D25">
+        <v>11</v>
+      </c>
+      <c r="G25" s="8">
+        <f t="shared" si="3"/>
+        <v>0.59799999999999898</v>
+      </c>
+      <c r="H25" s="8">
+        <f t="shared" si="4"/>
+        <v>0.59799999999999898</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>23</v>
+      </c>
+      <c r="B26" s="7">
+        <v>100.432</v>
+      </c>
+      <c r="C26" s="9">
+        <f>IF((B25*M3)&lt;H26,B26,(G26*M4+B25))</f>
+        <v>100.9716</v>
+      </c>
+      <c r="G26" s="8">
+        <f t="shared" si="3"/>
+        <v>-0.56799999999999784</v>
+      </c>
+      <c r="H26" s="8">
+        <f t="shared" si="4"/>
+        <v>0.56799999999999784</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>24</v>
+      </c>
+      <c r="B27" s="7">
+        <v>101</v>
+      </c>
+      <c r="C27" s="13">
+        <f>IF((B26*M3)&lt;H27,B27,(G27*M4+B26))</f>
+        <v>100.46040000000001</v>
+      </c>
+      <c r="D27">
+        <v>12</v>
+      </c>
+      <c r="G27" s="8">
+        <f t="shared" si="3"/>
+        <v>0.56799999999999784</v>
+      </c>
+      <c r="H27" s="8">
+        <f t="shared" si="4"/>
+        <v>0.56799999999999784</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>25</v>
+      </c>
+      <c r="B28" s="7">
+        <v>100.46</v>
+      </c>
+      <c r="C28" s="9">
+        <f>IF((B27*M3)&lt;H28,B28,(G28*M4+B27))</f>
+        <v>100.973</v>
+      </c>
+      <c r="G28" s="8">
+        <f t="shared" si="3"/>
+        <v>-0.54000000000000625</v>
+      </c>
+      <c r="H28" s="8">
+        <f t="shared" si="4"/>
+        <v>0.54000000000000625</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>26</v>
+      </c>
+      <c r="B29" s="7">
+        <v>101</v>
+      </c>
+      <c r="C29" s="13">
+        <f>IF((B28*M3)&lt;H29,B29,(G29*M4+B28))</f>
+        <v>100.48699999999999</v>
+      </c>
+      <c r="D29">
+        <v>13</v>
+      </c>
+      <c r="G29" s="8">
+        <f t="shared" si="3"/>
+        <v>0.54000000000000625</v>
+      </c>
+      <c r="H29" s="8">
+        <f t="shared" si="4"/>
+        <v>0.54000000000000625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>27</v>
+      </c>
+      <c r="B30" s="7">
+        <v>100.48699999999999</v>
+      </c>
+      <c r="C30" s="9">
+        <f>IF((B29*M3)&lt;H30,B30,(G30*M4+B29))</f>
+        <v>100.97435</v>
+      </c>
+      <c r="G30" s="8">
+        <f t="shared" si="3"/>
+        <v>-0.51300000000000523</v>
+      </c>
+      <c r="H30" s="8">
+        <f t="shared" si="4"/>
+        <v>0.51300000000000523</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>28</v>
+      </c>
+      <c r="B31" s="7">
+        <v>101</v>
+      </c>
+      <c r="C31" s="12">
+        <f>IF((B30*M3)&lt;H31,B31,(G31*M4+B30))</f>
+        <v>100.51264999999999</v>
+      </c>
+      <c r="D31">
+        <v>14</v>
+      </c>
+      <c r="G31" s="8">
+        <f t="shared" ref="G31:G37" si="5">(B31-B30)</f>
+        <v>0.51300000000000523</v>
+      </c>
+      <c r="H31" s="8">
+        <f t="shared" ref="H31:H37" si="6">IF(G31&lt;0,G31*(-1),G31)</f>
+        <v>0.51300000000000523</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>29</v>
+      </c>
+      <c r="B32" s="7">
+        <v>100.51300000000001</v>
+      </c>
+      <c r="C32" s="9">
+        <f>IF((B31*M3)&lt;H32,B32,(G32*M4+B31))</f>
+        <v>100.97565</v>
+      </c>
+      <c r="G32" s="8">
+        <f t="shared" si="5"/>
+        <v>-0.48699999999999477</v>
+      </c>
+      <c r="H32" s="8">
+        <f t="shared" si="6"/>
+        <v>0.48699999999999477</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>30</v>
+      </c>
+      <c r="B33" s="7">
+        <v>101</v>
+      </c>
+      <c r="C33" s="12">
+        <f>IF((B32*M3)&lt;H33,B33,(G33*M4+B32))</f>
+        <v>100.53735</v>
+      </c>
+      <c r="D33">
+        <v>15</v>
+      </c>
+      <c r="G33" s="8">
+        <f t="shared" si="5"/>
+        <v>0.48699999999999477</v>
+      </c>
+      <c r="H33" s="8">
+        <f t="shared" si="6"/>
+        <v>0.48699999999999477</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>31</v>
+      </c>
+      <c r="B34" s="7">
+        <v>100.53700000000001</v>
+      </c>
+      <c r="C34" s="9">
+        <f>IF((B33*M3)&lt;H34,B34,(G34*M4+B33))</f>
+        <v>100.97685</v>
+      </c>
+      <c r="G34" s="8">
+        <f t="shared" si="5"/>
+        <v>-0.46299999999999386</v>
+      </c>
+      <c r="H34" s="8">
+        <f t="shared" si="6"/>
+        <v>0.46299999999999386</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>32</v>
+      </c>
+      <c r="B35" s="7">
+        <v>101</v>
+      </c>
+      <c r="C35" s="12">
+        <f>IF((B34*M3)&lt;H35,B35,(G35*M4+B34))</f>
+        <v>100.56015000000001</v>
+      </c>
+      <c r="D35">
+        <v>16</v>
+      </c>
+      <c r="G35" s="8">
+        <f t="shared" si="5"/>
+        <v>0.46299999999999386</v>
+      </c>
+      <c r="H35" s="8">
+        <f t="shared" si="6"/>
+        <v>0.46299999999999386</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>33</v>
+      </c>
+      <c r="B36" s="7">
+        <v>100.56</v>
+      </c>
+      <c r="C36" s="9">
+        <f>IF((B35*M3)&lt;H36,B36,(G36*M4+B35))</f>
+        <v>100.97799999999999</v>
+      </c>
+      <c r="G36" s="8">
+        <f t="shared" si="5"/>
+        <v>-0.43999999999999773</v>
+      </c>
+      <c r="H36" s="8">
+        <f t="shared" si="6"/>
+        <v>0.43999999999999773</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>34</v>
+      </c>
+      <c r="B37" s="7">
+        <v>101</v>
+      </c>
+      <c r="C37" s="12">
+        <f>IF((B36*M3)&lt;H37,B37,(G37*M4+B36))</f>
+        <v>100.58200000000001</v>
+      </c>
+      <c r="D37">
+        <v>17</v>
+      </c>
+      <c r="G37" s="8">
+        <f t="shared" si="5"/>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="H37" s="8">
+        <f t="shared" si="6"/>
+        <v>0.43999999999999773</v>
       </c>
     </row>
   </sheetData>
